--- a/図書貸出データベース/データベースの設計.xlsx
+++ b/図書貸出データベース/データベースの設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LaLa-2025-01\09_MySQL\LaLa-MySQL-work\図書貸出データベース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE7139-BAB4-4709-BE61-EF1211E5F42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8506165F-F180-4E4A-925C-29F08505AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="390" windowWidth="12195" windowHeight="10650" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="840" windowWidth="13665" windowHeight="10680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
   <si>
     <t>貸出番号</t>
   </si>
@@ -297,6 +297,102 @@
     <t>id</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rent_day</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>return_day</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rent_Id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>book_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rent表</t>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>rent_book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>member</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +425,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -388,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,46 +513,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -748,167 +848,167 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="15">
         <v>123456</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="17">
         <v>45565</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="17">
         <v>45580</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="9" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="33">
       <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="1">
         <v>45553</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="1">
         <v>45567</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="15">
         <v>123457</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="17">
         <v>45565</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="17">
         <v>45580</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="9" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
         <v>123458</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="1">
         <v>45538</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="1">
         <v>45552</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="5"/>
@@ -926,7 +1026,7 @@
       <c r="J9" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -947,193 +1047,193 @@
       <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="18.75">
       <c r="A15" s="5"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="3">
         <v>123456</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="1">
         <v>45565</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="1">
         <v>45580</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="18.75">
       <c r="A16" s="5"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="3">
         <v>123456</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="1">
         <v>45565</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="1">
         <v>45580</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="18.75">
       <c r="A17" s="5"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="3">
         <v>123456</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="1">
         <v>45553</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="1">
         <v>45567</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="18.75">
       <c r="A18" s="5"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="3">
         <v>123457</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="1">
         <v>45565</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="1">
         <v>45580</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="18.75">
       <c r="A19" s="5"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="3">
         <v>123457</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="1">
         <v>45565</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="1">
         <v>45580</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="18.75">
       <c r="A20" s="5"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="2">
         <v>123458</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="1">
         <v>45538</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="1">
         <v>45552</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="5"/>
@@ -1151,19 +1251,19 @@
       <c r="J21" s="5"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1171,482 +1271,537 @@
       <c r="B26" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="3">
         <v>123456</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="1">
         <v>45565</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="1">
         <v>45580</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="3">
         <v>123456</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="1">
         <v>45553</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="1">
         <v>45567</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="3">
         <v>123457</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="1">
         <v>45565</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="1">
         <v>45580</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="2">
         <v>123458</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="1">
         <v>45538</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="1">
         <v>45552</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="18.75">
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="18.75">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="18.75">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="18.75">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="18.75">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="18.75">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1"/>
+    <row r="42" spans="2:9" s="13" customFormat="1"/>
     <row r="44" spans="2:9">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E47" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="18.75">
-      <c r="B46" s="12" t="s">
+    <row r="48" spans="2:9" ht="18.75">
+      <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C48" s="3">
         <v>123456</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D48" s="1">
         <v>45565</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E48" s="1">
         <v>45580</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="18.75">
-      <c r="B47" s="12" t="s">
+    <row r="49" spans="2:9" ht="18.75">
+      <c r="B49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C49" s="3">
         <v>123456</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D49" s="1">
         <v>45553</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E49" s="1">
         <v>45567</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="18.75">
-      <c r="B48" s="12" t="s">
+    <row r="50" spans="2:9" ht="18.75">
+      <c r="B50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C50" s="3">
         <v>123457</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D50" s="1">
         <v>45565</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E50" s="1">
         <v>45580</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="18.75">
-      <c r="B49" s="8" t="s">
+    <row r="51" spans="2:9" ht="18.75">
+      <c r="B51" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C51" s="2">
         <v>123458</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D51" s="1">
         <v>45538</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E51" s="1">
         <v>45552</v>
       </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="G51" s="7" t="s">
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="18.75">
+      <c r="B53" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I53" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="18.75">
-      <c r="G52" s="9" t="s">
+    <row r="54" spans="2:9" ht="18.75">
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I54" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="18.75">
-      <c r="B53" s="18" t="s">
+    <row r="55" spans="2:9" ht="18.75">
+      <c r="B55" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C55" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D55" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I55" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="18.75">
-      <c r="B54" s="18">
+    <row r="56" spans="2:9" ht="18.75">
+      <c r="B56" s="11">
         <v>1</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C56" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D56" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="I56" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="18.75">
-      <c r="B55" s="18">
+    <row r="57" spans="2:9" ht="18.75">
+      <c r="B57" s="11">
         <v>2</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C57" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D57" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I57" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="18.75">
-      <c r="B56" s="18">
+    <row r="58" spans="2:9" ht="18.75">
+      <c r="B58" s="11">
         <v>3</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C58" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D58" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I58" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="18.75">
-      <c r="B57" s="18">
+    <row r="59" spans="2:9" ht="18.75">
+      <c r="B59" s="11">
         <v>4</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C59" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D59" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I59" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="18">
+    <row r="60" spans="2:9">
+      <c r="B60" s="11">
         <v>5</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C60" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D60" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="18">
+    <row r="61" spans="2:9">
+      <c r="B61" s="11">
         <v>6</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C61" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D61" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="7" t="s">
+    <row r="63" spans="2:9">
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C65" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="18.75">
-      <c r="B63" s="12">
+    <row r="66" spans="2:3" ht="18.75">
+      <c r="B66" s="3">
         <v>123456</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="18.75">
-      <c r="B64" s="12">
+    <row r="67" spans="2:3" ht="18.75">
+      <c r="B67" s="3">
         <v>123456</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="18.75">
-      <c r="B65" s="12">
+    <row r="68" spans="2:3" ht="18.75">
+      <c r="B68" s="3">
         <v>123457</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C68" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="7">
+    <row r="69" spans="2:3">
+      <c r="B69" s="2">
         <v>123458</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C69" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/図書貸出データベース/データベースの設計.xlsx
+++ b/図書貸出データベース/データベースの設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LaLa-2025-01\09_MySQL\LaLa-MySQL-work\図書貸出データベース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\デスクトップLaLaバックアップ\LaLa-2025-01\09_MySQL\LaLa-MySQL-work\図書貸出データベース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8506165F-F180-4E4A-925C-29F08505AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41F675-AA18-4EBA-9752-FCF611522485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="840" windowWidth="13665" windowHeight="10680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="990" windowWidth="16740" windowHeight="10530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,6 +534,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,12 +550,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,19 +873,19 @@
     </row>
     <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="5"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="17">
         <v>123456</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="19">
         <v>45565</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="19">
         <v>45580</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -901,11 +901,11 @@
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="5"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
@@ -919,9 +919,9 @@
     </row>
     <row r="5" spans="1:10" ht="33">
       <c r="A5" s="5"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1">
         <v>45553</v>
       </c>
@@ -941,19 +941,19 @@
     </row>
     <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="5"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="17">
         <v>123457</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="19">
         <v>45565</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="19">
         <v>45580</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -969,11 +969,11 @@
     </row>
     <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="5"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="18.75">
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="15" t="s">
         <v>57</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -1746,7 +1746,7 @@
       <c r="B64" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1792,16 +1792,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
